--- a/data-raw/gasoline_prices.xlsx
+++ b/data-raw/gasoline_prices.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgeroa/Documents/GitHub/pmx_gasoline_theft_prediction/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D8F29F-51D6-0C45-81A4-EBD87EB2D2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFB54F2-CD95-C048-8A90-6D6650CEDEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2820" windowWidth="26440" windowHeight="15440" xr2:uid="{00208EAB-042B-F74E-8FF8-0A95225E62D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>year</t>
   </si>
@@ -423,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117E326A-020E-5640-9D14-BC0767AC152B}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -466,7 +467,7 @@
         <v>22.26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" cm="1">
         <f t="array" ref="B3:D3">B2:D2/B4:D4</f>
         <v>1.1625480505216914</v>
@@ -478,7 +479,7 @@
         <v>1.1488156539649843</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -492,11 +493,11 @@
         <v>19.420000000000002</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E3:E22" si="0">SUM(B4,C4,D4)/3</f>
+        <f t="shared" ref="E4:E22" si="0">SUM(B4,C4,D4)/3</f>
         <v>18.793333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" cm="1">
         <f t="array" ref="B5:D5">B4:D4/B6:D6</f>
         <v>0.93384615384615388</v>
@@ -507,8 +508,20 @@
       <c r="D5">
         <v>0.91603773584905668</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -525,8 +538,23 @@
         <f t="shared" si="0"/>
         <v>20.513333333333335</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>2022</v>
+      </c>
+      <c r="K6">
+        <v>21.17</v>
+      </c>
+      <c r="L6">
+        <v>23.3</v>
+      </c>
+      <c r="M6">
+        <v>22.31</v>
+      </c>
+      <c r="N6">
+        <v>22.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" cm="1">
         <f t="array" ref="B7:D7">B6:D6/B8:D8</f>
         <v>1.0077519379844961</v>
@@ -537,8 +565,27 @@
       <c r="D7">
         <v>1.0023640661938535</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>2015</v>
+      </c>
+      <c r="K7">
+        <v>13.57</v>
+      </c>
+      <c r="L7">
+        <v>14.38</v>
+      </c>
+      <c r="M7">
+        <v>14.2</v>
+      </c>
+      <c r="N7">
+        <v>14.050000000000002</v>
+      </c>
+      <c r="O7">
+        <f>N6/N7-1</f>
+        <v>0.58434163701067598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -556,7 +603,7 @@
         <v>20.423333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" cm="1">
         <f t="array" ref="B9:D9">B8:D8/B10:D10</f>
         <v>1.0797991071428572</v>
@@ -567,8 +614,12 @@
       <c r="D9">
         <v>1.1802455357142856</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <f>1-(0.584341637/8)*3</f>
+        <v>0.78087188612500003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -586,7 +637,7 @@
         <v>18.256666666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" cm="1">
         <f t="array" ref="B11:D11">B10:D10/B12:D12</f>
         <v>1.1207004377736085</v>
@@ -598,7 +649,7 @@
         <v>1.0510263929618768</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -616,7 +667,7 @@
         <v>16.943333333333332</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" cm="1">
         <f t="array" ref="B13:D13">B12:D12/B14:D14</f>
         <v>1.2150455927051671</v>
@@ -628,7 +679,7 @@
         <v>1.2381989832970226</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -646,7 +697,7 @@
         <v>13.636666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" cm="1">
         <f t="array" ref="B15:D15">B14:D14/B16:D16</f>
         <v>0.96978629329403099</v>
@@ -658,7 +709,7 @@
         <v>0.96971830985915497</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -676,7 +727,7 @@
         <v>14.050000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" cm="1">
         <f t="array" ref="B17:D17">B16:D16/B18:D18</f>
         <v>1.1014610389610389</v>
@@ -688,7 +739,7 @@
         <v>1.1154752553024352</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2014</v>
       </c>
@@ -706,7 +757,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" cm="1">
         <f t="array" ref="B19:D19">B18:D18/B20:D20</f>
         <v>1.1282051282051282</v>
@@ -718,7 +769,7 @@
         <v>1.1285460992907803</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -735,8 +786,11 @@
         <f t="shared" si="0"/>
         <v>11.226666666666667</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>0.78087188612500003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" cm="1">
         <f t="array" ref="B21:D21">B20:D20/B22:D22</f>
         <v>1.1120162932790223</v>
@@ -748,7 +802,7 @@
         <v>1.1080550098231827</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -766,7 +820,7 @@
         <v>10.213333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2011</v>
       </c>
